--- a/Statystyki_2018/Template/akrc.xlsx
+++ b/Statystyki_2018/Template/akrc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFB2101-CC8D-4966-A40D-3EB44EA2B416}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B5698A-889F-4620-9E6D-D7DF6EAE3633}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2" xr2:uid="{B34858F5-18CE-442F-ACD6-F963B996A318}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{B34858F5-18CE-442F-ACD6-F963B996A318}"/>
   </bookViews>
   <sheets>
     <sheet name="I C" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Ruch spraw</t>
   </si>
@@ -236,12 +236,18 @@
   <si>
     <t>L.p.</t>
   </si>
+  <si>
+    <t>załatwienia merytoryczne C</t>
+  </si>
+  <si>
+    <t>załatwienia merytoryczne Ca</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +336,12 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -543,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -626,13 +638,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -644,7 +659,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -656,13 +671,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -677,7 +689,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
@@ -689,14 +710,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,12 +1039,12 @@
       <selection activeCell="M5" sqref="M5:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1066,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="21" t="s">
         <v>2</v>
@@ -1085,7 +1106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -1117,7 +1138,7 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1137,7 +1158,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1157,7 +1178,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1198,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1197,7 +1218,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
@@ -1217,7 +1238,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1237,7 +1258,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -1257,7 +1278,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1277,7 +1298,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -1297,7 +1318,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>29</v>
       </c>
@@ -1317,7 +1338,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>30</v>
       </c>
@@ -1337,7 +1358,7 @@
       <c r="O16" s="14"/>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>31</v>
       </c>
@@ -1379,100 +1400,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DC576F-8255-4A99-AB83-E69560872746}">
-  <dimension ref="A2:AH4"/>
+  <dimension ref="A2:AJ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AE4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" customWidth="1"/>
     <col min="26" max="26" width="11" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" customWidth="1"/>
+    <col min="32" max="32" width="10.21875" customWidth="1"/>
+    <col min="33" max="33" width="14.6640625" customWidth="1"/>
+    <col min="36" max="36" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="28" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="21"/>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="30" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="31" t="s">
         <v>36</v>
       </c>
       <c r="V2" s="40" t="s">
         <v>37</v>
       </c>
       <c r="W2" s="41"/>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="29" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="36" t="s">
+      <c r="AB2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AC2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="34" t="s">
+      <c r="AD2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="35" t="s">
+      <c r="AE2" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="35" t="s">
+      <c r="AH2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35" t="s">
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="44" t="s">
+    <row r="3" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="34" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="21" t="s">
@@ -1512,31 +1541,33 @@
       <c r="T3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="31"/>
+      <c r="U3" s="32"/>
       <c r="V3" s="42"/>
       <c r="W3" s="43"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="27" t="s">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="27" t="s">
+      <c r="Z3" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-    </row>
-    <row r="4" spans="1:34" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+    </row>
+    <row r="4" spans="1:36" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1566,47 +1597,33 @@
       </c>
       <c r="S4" s="21"/>
       <c r="T4" s="23"/>
-      <c r="U4" s="32"/>
+      <c r="U4" s="33"/>
       <c r="V4" s="17" t="s">
         <v>44</v>
       </c>
       <c r="W4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="19" t="s">
+      <c r="X4" s="33"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" s="20" t="s">
+      <c r="AI4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AH4" s="35"/>
+      <c r="AJ4" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:T2"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="AF2:AG3"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="AC2:AC4"/>
+  <mergeCells count="33">
     <mergeCell ref="AA2:AA4"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:L4"/>
@@ -1622,8 +1639,27 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AH2:AI3"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1631,29 +1667,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C180C4A8-ACFF-4EC2-88A3-0A353C3C0FDC}">
   <dimension ref="A2:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="49" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -1662,30 +1698,30 @@
       <c r="E2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="22" t="s">
         <v>2</v>
       </c>
@@ -1710,32 +1746,32 @@
       <c r="M3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="37"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="22" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="51"/>
-    </row>
-    <row r="4" spans="1:18" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:18" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
-      <c r="M4" s="45"/>
+      <c r="M4" s="48"/>
       <c r="N4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1743,11 +1779,13 @@
         <v>19</v>
       </c>
       <c r="P4" s="23"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="51"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="F3:F4"/>
@@ -1764,8 +1802,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
